--- a/data/JAM/10033.xlsx
+++ b/data/JAM/10033.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" state="visible" r:id="rId2"/>
@@ -210,15 +210,15 @@
   </sheetPr>
   <dimension ref="A1:M1085"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A1085"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="9.35714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.35714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.62755102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="1" width="9.62755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.62755102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
